--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,9 @@
     <row r="1">
       <c r="A1" t="str">
         <v>nome</v>
+      </c>
+      <c r="B1" t="str">
+        <v/>
       </c>
     </row>
     <row r="2">
@@ -397,7 +400,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -385,12 +385,15 @@
         <v>nome</v>
       </c>
       <c r="B1" t="str">
-        <v/>
+        <v>diretor</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Carlos Gabriel de Castro Rodrigues</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Gabriel</v>
       </c>
     </row>
     <row r="3">
